--- a/data/trans_camb/P28B_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,83</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-18,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-14,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,69</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,06</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-13,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -4,97</t>
+          <t>-17,75; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -4,66</t>
+          <t>-22,01; -0,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,0; -6,14</t>
+          <t>-24,22; -3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,99; -3,51</t>
+          <t>-33,23; -6,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -1,93</t>
+          <t>-29,5; -0,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -1,31</t>
+          <t>-31,58; -0,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -6,34</t>
+          <t>-21,32; -2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -5,5</t>
+          <t>-21,17; -2,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -5,68</t>
+          <t>-22,63; -2,99</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-80,96%</t>
+          <t>-55,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-82,5%</t>
+          <t>-80,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-87,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-61,31%</t>
+          <t>-76,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,82%</t>
+          <t>-60,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,74%</t>
+          <t>-63,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-69,38%</t>
+          <t>-70,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,67%</t>
+          <t>-66,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-66,83%</t>
+          <t>-74,43%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -37,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -27,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -46,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-82,58; -19,21</t>
+          <t>-94,55; -16,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,84; -10,6</t>
+          <t>-88,85; 13,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,83; -3,46</t>
+          <t>-92,36; 27,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,73; -42,51</t>
+          <t>-91,31; -11,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,78; -38,97</t>
+          <t>-89,06; -9,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,14; -36,76</t>
+          <t>-94,22; 0,82</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,42</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,87</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,51</t>
+          <t>-13,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,24</t>
+          <t>-17,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,19</t>
+          <t>-13,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 1,74</t>
+          <t>-12,59; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -3,47</t>
+          <t>-15,46; -1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -4,0</t>
+          <t>-15,47; -0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -4,44</t>
+          <t>-21,7; -5,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,33; -6,85</t>
+          <t>-21,61; -5,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -7,63</t>
+          <t>-25,2; -10,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -3,9</t>
+          <t>-15,03; -3,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -7,4</t>
+          <t>-16,32; -5,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -7,87</t>
+          <t>-18,68; -7,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-34,38%</t>
+          <t>-38,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,31%</t>
+          <t>-60,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-63,73%</t>
+          <t>-57,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-51,05%</t>
+          <t>-54,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,74%</t>
+          <t>-52,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-66,87%</t>
+          <t>-70,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,45%</t>
+          <t>-48,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-60,15%</t>
+          <t>-55,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-65,98%</t>
+          <t>-66,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 17,69</t>
+          <t>-70,41; 24,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,96; -26,9</t>
+          <t>-85,82; -13,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,65; -25,19</t>
+          <t>-84,67; 0,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,39; -22,45</t>
+          <t>-72,67; -21,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,74; -35,93</t>
+          <t>-71,49; -22,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,41; -39,43</t>
+          <t>-83,55; -47,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,95; -22,11</t>
+          <t>-66,36; -20,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,18; -44,24</t>
+          <t>-71,06; -31,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,68; -47,82</t>
+          <t>-79,53; -45,76</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,37</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-14,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,11</t>
+          <t>-14,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-14,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,81</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>-10,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-10,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -4,39</t>
+          <t>-15,12; -2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -3,54</t>
+          <t>-13,57; -0,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -4,17</t>
+          <t>-12,57; 2,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,8; -5,13</t>
+          <t>-22,91; -6,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -6,16</t>
+          <t>-21,82; -5,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -6,21</t>
+          <t>-23,03; -7,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -6,76</t>
+          <t>-17,48; -7,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -6,76</t>
+          <t>-16,58; -6,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -7,14</t>
+          <t>-16,61; -5,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-63,98%</t>
+          <t>-70,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,81%</t>
+          <t>-57,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-66,35%</t>
+          <t>-45,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,3%</t>
+          <t>-64,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,57%</t>
+          <t>-62,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-55,99%</t>
+          <t>-64,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-56,88%</t>
+          <t>-66,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-58,3%</t>
+          <t>-60,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-60,35%</t>
+          <t>-58,89%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,3; -33,15</t>
+          <t>-91,43; -17,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,5; -20,82</t>
+          <t>-85,07; -6,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,9; -25,09</t>
+          <t>-82,02; 47,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,45; -27,58</t>
+          <t>-82,17; -36,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -32,0</t>
+          <t>-80,95; -32,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,8; -33,87</t>
+          <t>-81,42; -35,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,25; -40,35</t>
+          <t>-80,2; -45,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,76; -40,8</t>
+          <t>-76,52; -36,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -41,04</t>
+          <t>-76,04; -32,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -6,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -8,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -8,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -8,69</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-52,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-68,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-57,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-52,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-60,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-64,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,48; -29,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -44,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -49,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -35,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,53; -43,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,13; -45,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,29; -40,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,97; -49,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -51,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-6,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,84</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,42</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-14,72</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-13,78</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-16,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-10,93</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-11,08</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-12,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,17; -2,08</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; -3,41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,24; -2,76</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-19,98; -9,66</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; -8,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-20,9; -11,17</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-14,31; -7,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-14,56; -7,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; -8,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-52,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-61,85%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-58,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-61,3%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-57,36%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-67,18%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-58,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-59,11%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-64,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-72,12; -19,04</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-80,22; -33,2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-78,99; -23,77</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-73,42; -44,6</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-70,34; -41,59</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-77,75; -51,12</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-69,15; -42,21</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-70,37; -43,36</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-75,37; -51,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
